--- a/CheckList.xlsx
+++ b/CheckList.xlsx
@@ -1,42 +1,124 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600"/>
   </bookViews>
   <sheets>
-    <sheet name="List1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="List1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="125725" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>Windows-10</t>
+  </si>
+  <si>
+    <t>Browser name</t>
+  </si>
+  <si>
+    <t>opera</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>msedge</t>
+  </si>
+  <si>
+    <t>firefox</t>
+  </si>
+  <si>
+    <t>internet explorer</t>
+  </si>
+  <si>
+    <t>Browser version</t>
+  </si>
+  <si>
+    <t>81.0.4044.129</t>
+  </si>
+  <si>
+    <t>81.0.4044.138</t>
+  </si>
+  <si>
+    <t>81.0.416.72</t>
+  </si>
+  <si>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Last checked</t>
+  </si>
+  <si>
+    <t>09.05.2020_16.44.16</t>
+  </si>
+  <si>
+    <t>09.05.2020_16.47.04</t>
+  </si>
+  <si>
+    <t>09.05.2020_16.48.44</t>
+  </si>
+  <si>
+    <t>09.05.2020_16.52.08</t>
+  </si>
+  <si>
+    <t>09.05.2020_16.55.05</t>
+  </si>
+  <si>
+    <t>Open Main page</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Click on lk button</t>
+  </si>
+  <si>
+    <t>Enter phone number</t>
+  </si>
+  <si>
+    <t>Enter password</t>
+  </si>
+  <si>
+    <t>Click login</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -44,38 +126,21 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -364,90 +429,142 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col width="29.7109375" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
+    <col min="1" max="1" width="29.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>OS</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Browser</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Version</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="inlineStr">
-        <is>
-          <t>Open Main page</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="inlineStr">
-        <is>
-          <t>Click on lk button</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>Enter phone number</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="5" t="inlineStr">
-        <is>
-          <t>Enter password</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="5" t="inlineStr">
-        <is>
-          <t>Click login</t>
-        </is>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -456,36 +573,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CheckList.xlsx
+++ b/CheckList.xlsx
@@ -16,66 +16,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="27">
   <si>
     <t>OS</t>
   </si>
   <si>
-    <t>Windows-10</t>
+    <t>Windows-10-10.0.18362-SP0</t>
   </si>
   <si>
     <t>Browser name</t>
   </si>
   <si>
+    <t>msedge</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>firefox</t>
+  </si>
+  <si>
+    <t>internet explorer</t>
+  </si>
+  <si>
     <t>opera</t>
   </si>
   <si>
-    <t>chrome</t>
-  </si>
-  <si>
-    <t>msedge</t>
-  </si>
-  <si>
-    <t>firefox</t>
-  </si>
-  <si>
-    <t>internet explorer</t>
-  </si>
-  <si>
     <t>Browser version</t>
   </si>
   <si>
+    <t>81.0.416.72</t>
+  </si>
+  <si>
+    <t>81.0.4044.138</t>
+  </si>
+  <si>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>81.0.4044.129</t>
   </si>
   <si>
-    <t>81.0.4044.138</t>
-  </si>
-  <si>
-    <t>81.0.416.72</t>
-  </si>
-  <si>
-    <t>75.0</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>Last checked</t>
   </si>
   <si>
-    <t>09.05.2020_16.44.16</t>
-  </si>
-  <si>
-    <t>09.05.2020_16.47.04</t>
-  </si>
-  <si>
-    <t>09.05.2020_16.48.44</t>
-  </si>
-  <si>
-    <t>09.05.2020_16.52.08</t>
-  </si>
-  <si>
-    <t>09.05.2020_16.55.05</t>
+    <t>10.05.2020_13.50.05</t>
+  </si>
+  <si>
+    <t>10.05.2020_13.50.46</t>
+  </si>
+  <si>
+    <t>10.05.2020_13.51.29</t>
+  </si>
+  <si>
+    <t>10.05.2020_13.56.33</t>
+  </si>
+  <si>
+    <t>10.05.2020_13.57.41</t>
+  </si>
+  <si>
+    <t>10.05.2020_13.59.12</t>
   </si>
   <si>
     <t>Open Main page</t>
@@ -433,21 +436,16 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18" style="1" customWidth="1"/>
+    <col min="2" max="7" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -463,11 +461,14 @@
       <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -484,10 +485,13 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -504,10 +508,13 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -526,45 +533,123 @@
       <c r="F4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/CheckList.xlsx
+++ b/CheckList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="29">
   <si>
     <t>OS</t>
   </si>
@@ -27,6 +27,9 @@
     <t>Browser name</t>
   </si>
   <si>
+    <t>opera</t>
+  </si>
+  <si>
     <t>msedge</t>
   </si>
   <si>
@@ -39,12 +42,12 @@
     <t>internet explorer</t>
   </si>
   <si>
-    <t>opera</t>
-  </si>
-  <si>
     <t>Browser version</t>
   </si>
   <si>
+    <t>81.0.4044.129</t>
+  </si>
+  <si>
     <t>81.0.416.72</t>
   </si>
   <si>
@@ -57,34 +60,37 @@
     <t>11</t>
   </si>
   <si>
-    <t>81.0.4044.129</t>
-  </si>
-  <si>
     <t>Last checked</t>
   </si>
   <si>
-    <t>10.05.2020_13.50.05</t>
-  </si>
-  <si>
-    <t>10.05.2020_13.50.46</t>
-  </si>
-  <si>
-    <t>10.05.2020_13.51.29</t>
-  </si>
-  <si>
-    <t>10.05.2020_13.56.33</t>
-  </si>
-  <si>
-    <t>10.05.2020_13.57.41</t>
-  </si>
-  <si>
-    <t>10.05.2020_13.59.12</t>
+    <t>11.05.2020_22.52.38</t>
+  </si>
+  <si>
+    <t>11.05.2020_22.53.43</t>
+  </si>
+  <si>
+    <t>11.05.2020_22.54.26</t>
+  </si>
+  <si>
+    <t>11.05.2020_22.57.18</t>
+  </si>
+  <si>
+    <t>11.05.2020_22.58.12</t>
   </si>
   <si>
     <t>Open Main page</t>
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>Title is correct</t>
+  </si>
+  <si>
+    <t>Logo is visible</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
   <si>
     <t>Click on lk button</t>
@@ -433,19 +439,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.7109375" style="1" customWidth="1"/>
-    <col min="2" max="7" width="26.140625" customWidth="1"/>
+    <col min="2" max="6" width="18.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -464,11 +470,8 @@
       <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -485,13 +488,10 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -508,13 +508,10 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -533,123 +530,145 @@
       <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" t="s">
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2" t="s">
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2" t="s">
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
       <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/CheckList.xlsx
+++ b/CheckList.xlsx
@@ -1,127 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="List1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="List1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames/>
+  <calcPr calcId="125725" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="29">
-  <si>
-    <t>OS</t>
-  </si>
-  <si>
-    <t>Windows-10-10.0.18362-SP0</t>
-  </si>
-  <si>
-    <t>Browser name</t>
-  </si>
-  <si>
-    <t>opera</t>
-  </si>
-  <si>
-    <t>msedge</t>
-  </si>
-  <si>
-    <t>chrome</t>
-  </si>
-  <si>
-    <t>firefox</t>
-  </si>
-  <si>
-    <t>internet explorer</t>
-  </si>
-  <si>
-    <t>Browser version</t>
-  </si>
-  <si>
-    <t>81.0.4044.129</t>
-  </si>
-  <si>
-    <t>81.0.416.72</t>
-  </si>
-  <si>
-    <t>81.0.4044.138</t>
-  </si>
-  <si>
-    <t>75.0</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Last checked</t>
-  </si>
-  <si>
-    <t>11.05.2020_22.52.38</t>
-  </si>
-  <si>
-    <t>11.05.2020_22.53.43</t>
-  </si>
-  <si>
-    <t>11.05.2020_22.54.26</t>
-  </si>
-  <si>
-    <t>11.05.2020_22.57.18</t>
-  </si>
-  <si>
-    <t>11.05.2020_22.58.12</t>
-  </si>
-  <si>
-    <t>Open Main page</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Title is correct</t>
-  </si>
-  <si>
-    <t>Logo is visible</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Click on lk button</t>
-  </si>
-  <si>
-    <t>Enter phone number</t>
-  </si>
-  <si>
-    <t>Enter password</t>
-  </si>
-  <si>
-    <t>Click login</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -140,16 +49,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -438,237 +346,638 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" style="1" customWidth="1"/>
-    <col min="2" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col width="29.7109375" customWidth="1" style="1" min="1" max="1"/>
+    <col width="18.85546875" customWidth="1" style="1" min="2" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>OS</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Windows-10-10.0.18362-SP0</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Windows-10-10.0.18362-SP0</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Windows-10-10.0.18362-SP0</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Windows-10-10.0.18362-SP0</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Windows-10-10.0.18362-SP0</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Windows-10-10.0.18362-SP0</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Windows-10-10.0.18362-SP0</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Windows-10-10.0.18362-SP0</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Windows-10-10.0.18362-SP0</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Windows-10-10.0.18362-SP0</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Windows-10-10.0.18362-SP0</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Browser name</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>opera</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>msedge</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>chrome</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>firefox</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>internet explorer</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>firefox</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>chrome</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>chrome</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>chrome</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>chrome</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>chrome</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Browser version</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>81.0.4044.129</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>81.0.416.72</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>81.0.4044.138</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>81.0.4044.138</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>81.0.4044.138</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>81.0.4044.138</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>81.0.4044.138</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>81.0.4044.138</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Last checked</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>11.05.2020_22.52.38</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>11.05.2020_22.53.43</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.05.2020_22.54.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>11.05.2020_22.57.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>11.05.2020_22.58.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>12.05.2020_23.35.52</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>12.05.2020_23.36.53</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>12.05.2020_23.38.14</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>12.05.2020_23.38.43</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>12.05.2020_23.41.45</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>12.05.2020_23.44.28</t>
+        </is>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Open Main page</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Title is correct</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Logo is visible</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Click on lk button</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Enter phone number</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Enter password</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>Click login</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -677,24 +986,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
